--- a/StructureDefinition-process-meta.xlsx
+++ b/StructureDefinition-process-meta.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$39</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="211">
   <si>
     <t>Path</t>
   </si>
@@ -213,6 +213,16 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
+    <t>ingestionBatchId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/ingestion-batch-id}
+</t>
+  </si>
+  <si>
+    <t>The ID generated by an ingestion service. This represents a producer-submitted message collection</t>
+  </si>
+  <si>
     <t>tenantId</t>
   </si>
   <si>
@@ -220,17 +230,20 @@
 </t>
   </si>
   <si>
-    <t>Optional Extensions Element</t>
-  </si>
-  <si>
-    <t>Optional Extension Element - found in all resources.</t>
-  </si>
-  <si>
-    <t>ingestionBatchId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/ingestion-batch-id}
+    <t>The ID for either the client or tenant that holds the contract with the data receiver, as recorded by the data receiver</t>
+  </si>
+  <si>
+    <t>The ID for either the client or tenant that holds the contract with the data receiver, as recorded by the data receiver. This ID must be unique to data sent on behalf of that client or tenant within the data receiver systems. The receiver systems should associate this ID to the messages that originate from this client or tenant. This supports traceability, data protection, and data isolation, when appropriate.</t>
+  </si>
+  <si>
+    <t>processClientId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/process-client-id}
 </t>
+  </si>
+  <si>
+    <t>The ID of the client as recorded in the data producer or data integrator source system(s)</t>
   </si>
   <si>
     <t>processOrganization</t>
@@ -240,6 +253,12 @@
 </t>
   </si>
   <si>
+    <t>The organizing entity that owns the process that has produced the data held in the FHIR resource or element</t>
+  </si>
+  <si>
+    <t>The organizing entity that owns the process that has produced the data held in the FHIR resource or element. Example: If an IBM analytic service has been the producer, the process-organization value is IBM.</t>
+  </si>
+  <si>
     <t>processName</t>
   </si>
   <si>
@@ -247,6 +266,12 @@
 </t>
   </si>
   <si>
+    <t>The name of the process or service that has produced the data held in the FHIR resource or element</t>
+  </si>
+  <si>
+    <t>The name of the process or service that has produced the data held in the FHIR resource or element. Example: If an IBM analytic service has been the producer, use the process-name as the name of that analytic service.</t>
+  </si>
+  <si>
     <t>processVersion</t>
   </si>
   <si>
@@ -254,6 +279,9 @@
 </t>
   </si>
   <si>
+    <t>The version of either the process or the service that has produced the data held in the FHIR resource or element</t>
+  </si>
+  <si>
     <t>processType</t>
   </si>
   <si>
@@ -261,6 +289,9 @@
 </t>
   </si>
   <si>
+    <t>The classification type of the process that has produced the data held in either the FHIR resource or element</t>
+  </si>
+  <si>
     <t>processRecordId</t>
   </si>
   <si>
@@ -268,6 +299,9 @@
 </t>
   </si>
   <si>
+    <t>The record ID that the data producer or data integrator uses internally to identify this data</t>
+  </si>
+  <si>
     <t>processTimestamp</t>
   </si>
   <si>
@@ -275,6 +309,19 @@
 </t>
   </si>
   <si>
+    <t>The timestamp when the data was generated within the FHIR resource or element</t>
+  </si>
+  <si>
+    <t>sourceRecordId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/source-record-id}
+</t>
+  </si>
+  <si>
+    <t>The ID for a record that the data producer or data integrator extracted knowledge from to produce the data within the FHIR resource or element</t>
+  </si>
+  <si>
     <t>sourceFileId</t>
   </si>
   <si>
@@ -282,6 +329,19 @@
 </t>
   </si>
   <si>
+    <t>The ID for a file from which the data producer or data integrator extracted knowledge, to produce the data within this FHIR resource or element</t>
+  </si>
+  <si>
+    <t>sourceRecordType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/source-record-type}
+</t>
+  </si>
+  <si>
+    <t>Either the data model type or schema type that generates this FHIR resource</t>
+  </si>
+  <si>
     <t>sourceDataModelVersion</t>
   </si>
   <si>
@@ -289,6 +349,105 @@
 </t>
   </si>
   <si>
+    <t>Version of the source system's data model, used by either the data producer or the data integrator</t>
+  </si>
+  <si>
+    <t>sourceEventTrigger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/source-event-trigger}
+</t>
+  </si>
+  <si>
+    <t>The event that is the catalyst for creating or updating this FHIR resource</t>
+  </si>
+  <si>
+    <t>Meta.extension.id</t>
+  </si>
+  <si>
+    <t>Meta.extension.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>Meta.extension.url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://ibm.com/fhir/cdm/StructureDefinition/source-event-trigger</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Meta.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/ValueSet/v2-0003</t>
+  </si>
+  <si>
+    <t>sourceEventTimestamp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/source-event-timestamp}
+</t>
+  </si>
+  <si>
+    <t>Date and time of the source event that triggers either the creation or updating of this FHIR resource</t>
+  </si>
+  <si>
+    <t>insight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/insight}
+</t>
+  </si>
+  <si>
+    <t>References element level insight results pertaining to the data in this resource instance.</t>
+  </si>
+  <si>
     <t>Meta.versionId</t>
   </si>
   <si>
@@ -327,10 +486,6 @@
     <t>Meta.source</t>
   </si>
   <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
     <t>Identifies where the resource comes from</t>
   </si>
   <si>
@@ -394,13 +549,139 @@
     <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
+    <t>SourceClassificationTag</t>
+  </si>
+  <si>
+    <t>Identifies the origin of data elements in this FHIR resource, from either primary or secondary source systems</t>
+  </si>
+  <si>
+    <t>Meta.tag.id</t>
+  </si>
+  <si>
+    <t>Meta.tag.extension</t>
+  </si>
+  <si>
+    <t>Meta.tag.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>http://ibm.com/fhir/cdm/CodeSystem/process-meta-primary-or-secondary</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>Meta.tag.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>Meta.tag.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://ibm.com/fhir/cdm/ValueSet/source-classification-values</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>Meta.tag.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>Meta.tag.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
   </si>
 </sst>
 </file>
@@ -549,7 +830,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ20"/>
+  <dimension ref="A1:AJ39"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -558,7 +839,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="17.2890625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="24.69921875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="23.9375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -568,7 +849,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="44.2578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="134.05078125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -582,13 +863,13 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="39.6015625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="57.57421875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="18.18359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="19.97265625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
@@ -1041,7 +1322,7 @@
         <v>65</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1115,7 +1396,7 @@
         <v>52</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>37</v>
@@ -1137,13 +1418,13 @@
         <v>37</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>68</v>
       </c>
-      <c r="K6" t="s" s="2">
-        <v>65</v>
-      </c>
       <c r="L6" t="s" s="2">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1217,7 +1498,7 @@
         <v>52</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>37</v>
@@ -1239,13 +1520,13 @@
         <v>37</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1319,7 +1600,7 @@
         <v>52</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>37</v>
@@ -1341,13 +1622,13 @@
         <v>37</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1421,7 +1702,7 @@
         <v>52</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>37</v>
@@ -1443,13 +1724,13 @@
         <v>37</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1523,7 +1804,7 @@
         <v>52</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>37</v>
@@ -1545,13 +1826,13 @@
         <v>37</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1625,7 +1906,7 @@
         <v>52</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>37</v>
@@ -1635,7 +1916,7 @@
         <v>38</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>37</v>
@@ -1647,13 +1928,13 @@
         <v>37</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1727,7 +2008,7 @@
         <v>52</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>37</v>
@@ -1737,7 +2018,7 @@
         <v>38</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>37</v>
@@ -1749,13 +2030,13 @@
         <v>37</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1829,7 +2110,7 @@
         <v>52</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>37</v>
@@ -1839,7 +2120,7 @@
         <v>38</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>37</v>
@@ -1851,13 +2132,13 @@
         <v>37</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1931,7 +2212,7 @@
         <v>52</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>37</v>
@@ -1941,7 +2222,7 @@
         <v>38</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>37</v>
@@ -1953,13 +2234,13 @@
         <v>37</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2030,9 +2311,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="B15" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>96</v>
+      </c>
       <c r="C15" t="s" s="2">
         <v>37</v>
       </c>
@@ -2041,7 +2324,7 @@
         <v>38</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>37</v>
@@ -2050,20 +2333,18 @@
         <v>37</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>90</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>37</v>
@@ -2112,29 +2393,31 @@
         <v>37</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="B16" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="C16" t="s" s="2">
         <v>37</v>
       </c>
@@ -2152,20 +2435,18 @@
         <v>37</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>95</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>37</v>
@@ -2214,29 +2495,31 @@
         <v>37</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="B17" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="C17" t="s" s="2">
         <v>37</v>
       </c>
@@ -2254,20 +2537,18 @@
         <v>37</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>37</v>
@@ -2316,29 +2597,31 @@
         <v>37</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="C18" t="s" s="2">
         <v>37</v>
       </c>
@@ -2347,7 +2630,7 @@
         <v>38</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>37</v>
@@ -2356,20 +2639,18 @@
         <v>37</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>37</v>
@@ -2418,7 +2699,7 @@
         <v>37</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>38</v>
@@ -2430,15 +2711,15 @@
         <v>37</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2449,7 +2730,7 @@
         <v>38</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>37</v>
@@ -2458,20 +2739,18 @@
         <v>37</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>37</v>
@@ -2496,13 +2775,13 @@
         <v>37</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>113</v>
+        <v>37</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>37</v>
@@ -2520,27 +2799,27 @@
         <v>37</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2551,7 +2830,7 @@
         <v>38</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>37</v>
@@ -2560,20 +2839,18 @@
         <v>37</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>117</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>37</v>
@@ -2598,31 +2875,31 @@
         <v>37</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>119</v>
+        <v>37</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>120</v>
+        <v>37</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>38</v>
@@ -2634,14 +2911,1946 @@
         <v>37</v>
       </c>
       <c r="AI20" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" hidden="true">
+      <c r="A21" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P21" s="2"/>
+      <c r="Q21" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="R21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" hidden="true">
+      <c r="A22" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P22" s="2"/>
+      <c r="Q22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AB22" s="2"/>
+      <c r="AC22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI22" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AJ20" t="s" s="2">
-        <v>37</v>
+      <c r="AJ22" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" hidden="true">
+      <c r="A23" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P23" s="2"/>
+      <c r="Q23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="X23" s="2"/>
+      <c r="Y23" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" hidden="true">
+      <c r="A24" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J24" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P24" s="2"/>
+      <c r="Q24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" hidden="true">
+      <c r="A25" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J25" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P25" s="2"/>
+      <c r="Q25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" hidden="true">
+      <c r="A26" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="J26" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P26" s="2"/>
+      <c r="Q26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" hidden="true">
+      <c r="A27" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P27" s="2"/>
+      <c r="Q27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" hidden="true">
+      <c r="A28" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P28" s="2"/>
+      <c r="Q28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" hidden="true">
+      <c r="A29" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P29" s="2"/>
+      <c r="Q29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" hidden="true">
+      <c r="A30" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P30" s="2"/>
+      <c r="Q30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" hidden="true">
+      <c r="A31" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P31" s="2"/>
+      <c r="Q31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AB31" s="2"/>
+      <c r="AC31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" hidden="true">
+      <c r="A32" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P32" s="2"/>
+      <c r="Q32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" hidden="true">
+      <c r="A33" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P33" s="2"/>
+      <c r="Q33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" hidden="true">
+      <c r="A34" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P34" s="2"/>
+      <c r="Q34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" hidden="true">
+      <c r="A35" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P35" s="2"/>
+      <c r="Q35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R35" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="36" hidden="true">
+      <c r="A36" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P36" s="2"/>
+      <c r="Q36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="37" hidden="true">
+      <c r="A37" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="X37" s="2"/>
+      <c r="Y37" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="38" hidden="true">
+      <c r="A38" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="39" hidden="true">
+      <c r="A39" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ20">
+  <autoFilter ref="A1:AJ39">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -2651,7 +4860,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI19">
+  <conditionalFormatting sqref="A2:AI38">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-process-meta.xlsx
+++ b/StructureDefinition-process-meta.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-20T17:48:04+00:00</t>
+    <t>2021-09-21T12:28:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-process-meta.xlsx
+++ b/StructureDefinition-process-meta.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-21T12:28:41+00:00</t>
+    <t>2021-09-28T19:40:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-process-meta.xlsx
+++ b/StructureDefinition-process-meta.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-28T19:40:31+00:00</t>
+    <t>2021-10-01T15:07:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -659,7 +659,7 @@
     <t>SourceClassificationTag</t>
   </si>
   <si>
-    <t>Identifies the origin of data elements in this FHIR resource, from either primary or secondary source systems</t>
+    <t>Identifies the origin of this FHIR resource, from either a source system of record or derived from a process</t>
   </si>
   <si>
     <t>Meta.tag.id</t>
@@ -683,7 +683,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/CodeSystem/process-meta-primary-or-secondary</t>
+    <t>http://ibm.com/fhir/cdm/CodeSystem/process-meta-source-classification</t>
   </si>
   <si>
     <t>Coding.system</t>

--- a/StructureDefinition-process-meta.xlsx
+++ b/StructureDefinition-process-meta.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T14:45:01+00:00</t>
+    <t>2021-12-16T17:36:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-process-meta.xlsx
+++ b/StructureDefinition-process-meta.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="245">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,16 +57,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T17:36:56+00:00</t>
+    <t>2022-01-21T20:46:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>No display for ContactDetail</t>
+    <t>Alvearie Team</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>United States of America</t>
   </si>
   <si>
     <t>Description</t>
@@ -912,7 +915,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -988,90 +991,84 @@
       <c r="A9" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" t="s" s="2">
+        <v>16</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1130,3974 +1127,3974 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="X23" s="2"/>
       <c r="Y23" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AB31" s="2"/>
       <c r="AC31" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="X37" s="2"/>
       <c r="Y37" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-process-meta.xlsx
+++ b/StructureDefinition-process-meta.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.0.0</t>
+    <t>6.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-21T20:46:54+00:00</t>
+    <t>2022-05-31T20:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -356,7 +356,7 @@
     <t>The organizing entity that owns the process that has produced the data held in the FHIR resource or element</t>
   </si>
   <si>
-    <t>The organizing entity that owns the process that has produced the data held in the FHIR resource or element. Example: If an IBM analytic service has been the producer, the process-organization value is IBM.</t>
+    <t>The organizing entity that owns the process that has produced the data held in the FHIR resource or element. Example: If an analytic service has been the producer, the process-organization value should reflect the organaization reponsible for the service.</t>
   </si>
   <si>
     <t>processName</t>
@@ -369,7 +369,7 @@
     <t>The name of the process or service that has produced the data held in the FHIR resource or element</t>
   </si>
   <si>
-    <t>The name of the process or service that has produced the data held in the FHIR resource or element. Example: If an IBM analytic service has been the producer, use the process-name as the name of that analytic service.</t>
+    <t>The name of the process or service that has produced the data held in the FHIR resource or element. Example: If an analytic service has been the producer, use the process-name as the name of that analytic service.</t>
   </si>
   <si>
     <t>processVersion</t>

--- a/StructureDefinition-process-meta.xlsx
+++ b/StructureDefinition-process-meta.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.0</t>
+    <t>6.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T20:10:14+00:00</t>
+    <t>2022-06-06T15:56:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-process-meta.xlsx
+++ b/StructureDefinition-process-meta.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.1</t>
+    <t>7.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T15:56:40+00:00</t>
+    <t>2022-09-01T20:48:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1087,42 +1087,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="24.69921875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="24.703125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="23.9375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="134.05078125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="134.0546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="57.57421875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="57.578125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="19.97265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="24.9765625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-process-meta.xlsx
+++ b/StructureDefinition-process-meta.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T20:48:10+00:00</t>
+    <t>2022-09-01T21:20:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-process-meta.xlsx
+++ b/StructureDefinition-process-meta.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:20:10+00:00</t>
+    <t>2022-09-01T21:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-process-meta.xlsx
+++ b/StructureDefinition-process-meta.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:41:49+00:00</t>
+    <t>2022-09-01T22:10:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-process-meta.xlsx
+++ b/StructureDefinition-process-meta.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T22:10:22+00:00</t>
+    <t>2022-09-06T15:46:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-process-meta.xlsx
+++ b/StructureDefinition-process-meta.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T15:46:40+00:00</t>
+    <t>2022-09-06T17:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-process-meta.xlsx
+++ b/StructureDefinition-process-meta.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T17:14:02+00:00</t>
+    <t>2022-09-06T21:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-process-meta.xlsx
+++ b/StructureDefinition-process-meta.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:02:26+00:00</t>
+    <t>2022-09-06T21:25:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-process-meta.xlsx
+++ b/StructureDefinition-process-meta.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:25:20+00:00</t>
+    <t>2022-09-07T15:39:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-process-meta.xlsx
+++ b/StructureDefinition-process-meta.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T15:39:45+00:00</t>
+    <t>2022-09-07T17:21:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-process-meta.xlsx
+++ b/StructureDefinition-process-meta.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:21:01+00:00</t>
+    <t>2022-09-07T17:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-process-meta.xlsx
+++ b/StructureDefinition-process-meta.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:59:32+00:00</t>
+    <t>2022-09-07T18:17:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-process-meta.xlsx
+++ b/StructureDefinition-process-meta.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:17:14+00:00</t>
+    <t>2022-09-07T18:58:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-process-meta.xlsx
+++ b/StructureDefinition-process-meta.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:58:38+00:00</t>
+    <t>2022-09-07T20:17:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-process-meta.xlsx
+++ b/StructureDefinition-process-meta.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:17:32+00:00</t>
+    <t>2022-09-07T20:41:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-process-meta.xlsx
+++ b/StructureDefinition-process-meta.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:41:11+00:00</t>
+    <t>2022-09-08T16:11:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-process-meta.xlsx
+++ b/StructureDefinition-process-meta.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/StructureDefinition/process-meta</t>
+    <t>http://linuxforhealth.org/fhir/cdm/StructureDefinition/process-meta</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>7.0.0</t>
+    <t>8.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T16:11:15+00:00</t>
+    <t>2022-11-10T16:00:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Alvearie Team</t>
+    <t>LinuxForHealth Team</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -247,301 +247,301 @@
 </t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Meta.id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>ingestionBatchId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/ingestion-batch-id}
+</t>
+  </si>
+  <si>
+    <t>The ID generated by an ingestion service. This represents a producer-submitted message collection</t>
+  </si>
+  <si>
+    <t>tenantId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/tenant-id}
+</t>
+  </si>
+  <si>
+    <t>The ID for either the client or tenant that holds the contract with the data receiver, as recorded by the data receiver</t>
+  </si>
+  <si>
+    <t>The ID for either the client or tenant that holds the contract with the data receiver, as recorded by the data receiver. This ID must be unique to data sent on behalf of that client or tenant within the data receiver systems. The receiver systems should associate this ID to the messages that originate from this client or tenant. This supports traceability, data protection, and data isolation, when appropriate.</t>
+  </si>
+  <si>
+    <t>processClientId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/process-client-id}
+</t>
+  </si>
+  <si>
+    <t>The ID of the client as recorded in the data producer or data integrator source system(s)</t>
+  </si>
+  <si>
+    <t>processOrganization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/process-organization}
+</t>
+  </si>
+  <si>
+    <t>The organizing entity that owns the process that has produced the data held in the FHIR resource or element</t>
+  </si>
+  <si>
+    <t>The organizing entity that owns the process that has produced the data held in the FHIR resource or element. Example: If an analytic service has been the producer, the process-organization value should reflect the organaization reponsible for the service.</t>
+  </si>
+  <si>
+    <t>processName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/process-name}
+</t>
+  </si>
+  <si>
+    <t>The name of the process or service that has produced the data held in the FHIR resource or element</t>
+  </si>
+  <si>
+    <t>The name of the process or service that has produced the data held in the FHIR resource or element. Example: If an analytic service has been the producer, use the process-name as the name of that analytic service.</t>
+  </si>
+  <si>
+    <t>processVersion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/process-version}
+</t>
+  </si>
+  <si>
+    <t>The version of either the process or the service that has produced the data held in the FHIR resource or element</t>
+  </si>
+  <si>
+    <t>processType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/process-type}
+</t>
+  </si>
+  <si>
+    <t>The classification type of the process that has produced the data held in either the FHIR resource or element</t>
+  </si>
+  <si>
+    <t>processRecordId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/process-record-id}
+</t>
+  </si>
+  <si>
+    <t>The record ID that the data producer or data integrator uses internally to identify this data</t>
+  </si>
+  <si>
+    <t>processTimestamp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/process-timestamp}
+</t>
+  </si>
+  <si>
+    <t>The timestamp when the data was generated within the FHIR resource or element</t>
+  </si>
+  <si>
+    <t>sourceRecordId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/source-record-id}
+</t>
+  </si>
+  <si>
+    <t>The ID for a record that the data producer or data integrator extracted knowledge from to produce the data within the FHIR resource or element</t>
+  </si>
+  <si>
+    <t>sourceFileId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/source-file-id}
+</t>
+  </si>
+  <si>
+    <t>The ID for a file from which the data producer or data integrator extracted knowledge, to produce the data within this FHIR resource or element</t>
+  </si>
+  <si>
+    <t>sourceRecordType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/source-record-type}
+</t>
+  </si>
+  <si>
+    <t>Either the data model type or schema type that generates this FHIR resource</t>
+  </si>
+  <si>
+    <t>sourceDataModelVersion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/source-data-model-version}
+</t>
+  </si>
+  <si>
+    <t>Version of the source system's data model, used by either the data producer or the data integrator</t>
+  </si>
+  <si>
+    <t>sourceEventTrigger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/source-event-trigger}
+</t>
+  </si>
+  <si>
+    <t>The event that is the catalyst for creating or updating this FHIR resource</t>
+  </si>
+  <si>
+    <t>Meta.extension.id</t>
+  </si>
+  <si>
+    <t>Meta.extension.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>Meta.extension.url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://linuxforhealth.org/fhir/cdm/StructureDefinition/source-event-trigger</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Meta.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Meta.id</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/ValueSet/v2-0003</t>
+  </si>
+  <si>
+    <t>sourceEventTimestamp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/source-event-timestamp}
 </t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Meta.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>ingestionBatchId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/ingestion-batch-id}
-</t>
-  </si>
-  <si>
-    <t>The ID generated by an ingestion service. This represents a producer-submitted message collection</t>
-  </si>
-  <si>
-    <t>tenantId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/tenant-id}
-</t>
-  </si>
-  <si>
-    <t>The ID for either the client or tenant that holds the contract with the data receiver, as recorded by the data receiver</t>
-  </si>
-  <si>
-    <t>The ID for either the client or tenant that holds the contract with the data receiver, as recorded by the data receiver. This ID must be unique to data sent on behalf of that client or tenant within the data receiver systems. The receiver systems should associate this ID to the messages that originate from this client or tenant. This supports traceability, data protection, and data isolation, when appropriate.</t>
-  </si>
-  <si>
-    <t>processClientId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/process-client-id}
-</t>
-  </si>
-  <si>
-    <t>The ID of the client as recorded in the data producer or data integrator source system(s)</t>
-  </si>
-  <si>
-    <t>processOrganization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/process-organization}
-</t>
-  </si>
-  <si>
-    <t>The organizing entity that owns the process that has produced the data held in the FHIR resource or element</t>
-  </si>
-  <si>
-    <t>The organizing entity that owns the process that has produced the data held in the FHIR resource or element. Example: If an analytic service has been the producer, the process-organization value should reflect the organaization reponsible for the service.</t>
-  </si>
-  <si>
-    <t>processName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/process-name}
-</t>
-  </si>
-  <si>
-    <t>The name of the process or service that has produced the data held in the FHIR resource or element</t>
-  </si>
-  <si>
-    <t>The name of the process or service that has produced the data held in the FHIR resource or element. Example: If an analytic service has been the producer, use the process-name as the name of that analytic service.</t>
-  </si>
-  <si>
-    <t>processVersion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/process-version}
-</t>
-  </si>
-  <si>
-    <t>The version of either the process or the service that has produced the data held in the FHIR resource or element</t>
-  </si>
-  <si>
-    <t>processType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/process-type}
-</t>
-  </si>
-  <si>
-    <t>The classification type of the process that has produced the data held in either the FHIR resource or element</t>
-  </si>
-  <si>
-    <t>processRecordId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/process-record-id}
-</t>
-  </si>
-  <si>
-    <t>The record ID that the data producer or data integrator uses internally to identify this data</t>
-  </si>
-  <si>
-    <t>processTimestamp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/process-timestamp}
-</t>
-  </si>
-  <si>
-    <t>The timestamp when the data was generated within the FHIR resource or element</t>
-  </si>
-  <si>
-    <t>sourceRecordId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/source-record-id}
-</t>
-  </si>
-  <si>
-    <t>The ID for a record that the data producer or data integrator extracted knowledge from to produce the data within the FHIR resource or element</t>
-  </si>
-  <si>
-    <t>sourceFileId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/source-file-id}
-</t>
-  </si>
-  <si>
-    <t>The ID for a file from which the data producer or data integrator extracted knowledge, to produce the data within this FHIR resource or element</t>
-  </si>
-  <si>
-    <t>sourceRecordType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/source-record-type}
-</t>
-  </si>
-  <si>
-    <t>Either the data model type or schema type that generates this FHIR resource</t>
-  </si>
-  <si>
-    <t>sourceDataModelVersion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/source-data-model-version}
-</t>
-  </si>
-  <si>
-    <t>Version of the source system's data model, used by either the data producer or the data integrator</t>
-  </si>
-  <si>
-    <t>sourceEventTrigger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/source-event-trigger}
-</t>
-  </si>
-  <si>
-    <t>The event that is the catalyst for creating or updating this FHIR resource</t>
-  </si>
-  <si>
-    <t>Meta.extension.id</t>
-  </si>
-  <si>
-    <t>Meta.extension.extension</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t>Meta.extension.url</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>http://ibm.com/fhir/cdm/StructureDefinition/source-event-trigger</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>Meta.extension.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-0003</t>
-  </si>
-  <si>
-    <t>sourceEventTimestamp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/source-event-timestamp}
-</t>
-  </si>
-  <si>
     <t>Date and time of the source event that triggers either the creation or updating of this FHIR resource</t>
   </si>
   <si>
     <t>insight</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/insight}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/insight}
 </t>
   </si>
   <si>
@@ -686,7 +686,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/CodeSystem/process-meta-source-classification</t>
+    <t>http://linuxforhealth.org/fhir/cdm/CodeSystem/process-meta-source-classification</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -732,7 +732,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/ValueSet/source-classification-values</t>
+    <t>http://linuxforhealth.org/fhir/cdm/ValueSet/source-classification-values</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -1111,7 +1111,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="57.578125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="65.9921875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -1329,15 +1329,15 @@
         <v>76</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="AJ2" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1348,25 +1348,25 @@
         <v>72</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1417,31 +1417,31 @@
         <v>71</v>
       </c>
       <c r="AE3" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="AF3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
@@ -1460,16 +1460,16 @@
         <v>71</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
@@ -1507,19 +1507,19 @@
         <v>71</v>
       </c>
       <c r="AA4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AB4" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AB4" t="s" s="2">
+      <c r="AC4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD4" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="AC4" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD4" t="s" s="2">
+      <c r="AE4" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>72</v>
@@ -1531,18 +1531,18 @@
         <v>71</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>71</v>
@@ -1552,7 +1552,7 @@
         <v>72</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>71</v>
@@ -1564,13 +1564,13 @@
         <v>71</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="K5" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="L5" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1621,7 +1621,7 @@
         <v>71</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>72</v>
@@ -1633,7 +1633,7 @@
         <v>71</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>71</v>
@@ -1641,10 +1641,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>71</v>
@@ -1654,7 +1654,7 @@
         <v>72</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>71</v>
@@ -1666,13 +1666,13 @@
         <v>71</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1723,7 +1723,7 @@
         <v>71</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>72</v>
@@ -1735,7 +1735,7 @@
         <v>71</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>71</v>
@@ -1743,10 +1743,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>71</v>
@@ -1756,7 +1756,7 @@
         <v>72</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>71</v>
@@ -1768,13 +1768,13 @@
         <v>71</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="K7" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="L7" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1825,7 +1825,7 @@
         <v>71</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>72</v>
@@ -1837,7 +1837,7 @@
         <v>71</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>71</v>
@@ -1845,10 +1845,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>71</v>
@@ -1858,7 +1858,7 @@
         <v>72</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>71</v>
@@ -1870,13 +1870,13 @@
         <v>71</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1927,7 +1927,7 @@
         <v>71</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>72</v>
@@ -1939,7 +1939,7 @@
         <v>71</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>71</v>
@@ -1947,10 +1947,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>71</v>
@@ -1960,7 +1960,7 @@
         <v>72</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>71</v>
@@ -1972,13 +1972,13 @@
         <v>71</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -2029,7 +2029,7 @@
         <v>71</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>72</v>
@@ -2041,7 +2041,7 @@
         <v>71</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>71</v>
@@ -2049,10 +2049,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>71</v>
@@ -2062,7 +2062,7 @@
         <v>72</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>71</v>
@@ -2074,13 +2074,13 @@
         <v>71</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="K10" t="s" s="2">
-        <v>117</v>
-      </c>
       <c r="L10" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2131,7 +2131,7 @@
         <v>71</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>72</v>
@@ -2143,7 +2143,7 @@
         <v>71</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>71</v>
@@ -2151,10 +2151,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>71</v>
@@ -2164,7 +2164,7 @@
         <v>72</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>71</v>
@@ -2176,13 +2176,13 @@
         <v>71</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="K11" t="s" s="2">
-        <v>120</v>
-      </c>
       <c r="L11" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2233,7 +2233,7 @@
         <v>71</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>72</v>
@@ -2245,7 +2245,7 @@
         <v>71</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>71</v>
@@ -2253,10 +2253,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>71</v>
@@ -2278,13 +2278,13 @@
         <v>71</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="K12" t="s" s="2">
-        <v>123</v>
-      </c>
       <c r="L12" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2335,7 +2335,7 @@
         <v>71</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>72</v>
@@ -2347,7 +2347,7 @@
         <v>71</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>71</v>
@@ -2355,10 +2355,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>71</v>
@@ -2368,7 +2368,7 @@
         <v>72</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>71</v>
@@ -2380,13 +2380,13 @@
         <v>71</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="K13" t="s" s="2">
-        <v>126</v>
-      </c>
       <c r="L13" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2437,7 +2437,7 @@
         <v>71</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>72</v>
@@ -2449,7 +2449,7 @@
         <v>71</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>71</v>
@@ -2457,10 +2457,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>71</v>
@@ -2482,13 +2482,13 @@
         <v>71</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="K14" t="s" s="2">
-        <v>129</v>
-      </c>
       <c r="L14" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2539,7 +2539,7 @@
         <v>71</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>72</v>
@@ -2551,7 +2551,7 @@
         <v>71</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>71</v>
@@ -2559,10 +2559,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>71</v>
@@ -2584,13 +2584,13 @@
         <v>71</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="K15" t="s" s="2">
-        <v>132</v>
-      </c>
       <c r="L15" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2641,7 +2641,7 @@
         <v>71</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>72</v>
@@ -2653,7 +2653,7 @@
         <v>71</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>71</v>
@@ -2661,10 +2661,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>71</v>
@@ -2674,7 +2674,7 @@
         <v>72</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>71</v>
@@ -2686,13 +2686,13 @@
         <v>71</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="K16" t="s" s="2">
-        <v>135</v>
-      </c>
       <c r="L16" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2743,7 +2743,7 @@
         <v>71</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>72</v>
@@ -2755,7 +2755,7 @@
         <v>71</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>71</v>
@@ -2763,10 +2763,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>71</v>
@@ -2776,7 +2776,7 @@
         <v>72</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>71</v>
@@ -2788,13 +2788,13 @@
         <v>71</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="K17" t="s" s="2">
-        <v>138</v>
-      </c>
       <c r="L17" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2845,7 +2845,7 @@
         <v>71</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>72</v>
@@ -2857,7 +2857,7 @@
         <v>71</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>71</v>
@@ -2865,10 +2865,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>71</v>
@@ -2878,7 +2878,7 @@
         <v>72</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>71</v>
@@ -2890,13 +2890,13 @@
         <v>71</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="K18" t="s" s="2">
-        <v>141</v>
-      </c>
       <c r="L18" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2947,7 +2947,7 @@
         <v>71</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>72</v>
@@ -2959,7 +2959,7 @@
         <v>71</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>71</v>
@@ -2967,7 +2967,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2978,25 +2978,25 @@
         <v>72</v>
       </c>
       <c r="F19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J19" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J19" t="s" s="2">
+      <c r="K19" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3047,27 +3047,27 @@
         <v>71</v>
       </c>
       <c r="AE19" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>85</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3090,13 +3090,13 @@
         <v>71</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3135,19 +3135,19 @@
         <v>71</v>
       </c>
       <c r="AA20" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AB20" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AB20" t="s" s="2">
+      <c r="AC20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD20" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="AC20" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD20" t="s" s="2">
+      <c r="AE20" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>72</v>
@@ -3159,7 +3159,7 @@
         <v>71</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>71</v>
@@ -3167,7 +3167,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3175,10 +3175,10 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>71</v>
@@ -3190,16 +3190,16 @@
         <v>71</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3207,55 +3207,55 @@
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="R21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE21" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="R21" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S21" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>152</v>
-      </c>
       <c r="AF21" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>71</v>
@@ -3264,12 +3264,12 @@
         <v>71</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3280,7 +3280,7 @@
         <v>72</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>71</v>
@@ -3292,13 +3292,13 @@
         <v>71</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3337,37 +3337,37 @@
         <v>71</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD22" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AE22" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="AE22" t="s" s="2">
+      <c r="AF22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI22" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="AF22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI22" t="s" s="2">
+      <c r="AJ22" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>160</v>
@@ -3380,7 +3380,7 @@
         <v>72</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>71</v>
@@ -3392,13 +3392,13 @@
         <v>71</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3447,27 +3447,27 @@
         <v>71</v>
       </c>
       <c r="AE23" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI23" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="AF23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI23" t="s" s="2">
+      <c r="AJ23" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>163</v>
@@ -3480,7 +3480,7 @@
         <v>72</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>71</v>
@@ -3549,7 +3549,7 @@
         <v>71</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>72</v>
@@ -3561,7 +3561,7 @@
         <v>71</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>71</v>
@@ -3569,7 +3569,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>166</v>
@@ -3651,7 +3651,7 @@
         <v>71</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>72</v>
@@ -3663,7 +3663,7 @@
         <v>71</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>71</v>
@@ -3682,7 +3682,7 @@
         <v>72</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>71</v>
@@ -3759,13 +3759,13 @@
         <v>72</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>71</v>
@@ -3784,7 +3784,7 @@
         <v>72</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>71</v>
@@ -3861,13 +3861,13 @@
         <v>72</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>71</v>
@@ -3886,7 +3886,7 @@
         <v>72</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>71</v>
@@ -3898,7 +3898,7 @@
         <v>170</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>181</v>
@@ -3963,13 +3963,13 @@
         <v>72</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>71</v>
@@ -4071,7 +4071,7 @@
         <v>71</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>71</v>
@@ -4173,7 +4173,7 @@
         <v>71</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>71</v>
@@ -4258,7 +4258,7 @@
         <v>71</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AE31" t="s" s="2">
         <v>197</v>
@@ -4273,7 +4273,7 @@
         <v>71</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>71</v>
@@ -4294,7 +4294,7 @@
         <v>72</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>71</v>
@@ -4377,7 +4377,7 @@
         <v>71</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>71</v>
@@ -4396,25 +4396,25 @@
         <v>72</v>
       </c>
       <c r="F33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J33" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J33" t="s" s="2">
+      <c r="K33" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4465,22 +4465,22 @@
         <v>71</v>
       </c>
       <c r="AE33" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>85</v>
       </c>
     </row>
     <row r="34">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -4508,16 +4508,16 @@
         <v>71</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -4555,19 +4555,19 @@
         <v>71</v>
       </c>
       <c r="AA34" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AB34" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AB34" t="s" s="2">
+      <c r="AC34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD34" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="AC34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD34" t="s" s="2">
+      <c r="AE34" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>72</v>
@@ -4579,10 +4579,10 @@
         <v>71</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35">
@@ -4595,10 +4595,10 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>71</v>
@@ -4610,7 +4610,7 @@
         <v>170</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>209</v>
@@ -4677,13 +4677,13 @@
         <v>72</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>215</v>
@@ -4702,7 +4702,7 @@
         <v>72</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>71</v>
@@ -4714,7 +4714,7 @@
         <v>170</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>217</v>
@@ -4779,13 +4779,13 @@
         <v>72</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>221</v>
@@ -4804,7 +4804,7 @@
         <v>72</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>71</v>
@@ -4879,13 +4879,13 @@
         <v>72</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>230</v>
@@ -4904,7 +4904,7 @@
         <v>72</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>71</v>
@@ -4916,7 +4916,7 @@
         <v>170</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>232</v>
@@ -4981,13 +4981,13 @@
         <v>72</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>236</v>
@@ -5006,7 +5006,7 @@
         <v>72</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>71</v>
@@ -5085,13 +5085,13 @@
         <v>72</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>244</v>
